--- a/biology/Botanique/Alphonse_Faure/Alphonse_Faure.xlsx
+++ b/biology/Botanique/Alphonse_Faure/Alphonse_Faure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alphonse Faure est un botaniste français né à Le Monêtier-de-Briançon le 7 mars 1865 et décédé à Oran le 28 janvier 1958 (à 92 ans)[1].
-Élève de l'école normale d'instituteurs de Gap de 1882 à 1885, il fut instituteur dans le département des Hautes-Alpes, à Briançon, Gap, et Theus, de 1885 à 1903, puis en Algérie à Oran[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alphonse Faure est un botaniste français né à Le Monêtier-de-Briançon le 7 mars 1865 et décédé à Oran le 28 janvier 1958 (à 92 ans).
+Élève de l'école normale d'instituteurs de Gap de 1882 à 1885, il fut instituteur dans le département des Hautes-Alpes, à Briançon, Gap, et Theus, de 1885 à 1903, puis en Algérie à Oran.
 Il a herborisé dans les Hautes-Alpes, dans la région d'Oran et au Maroc dans les Béni-Snassen.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a découvert plusieurs espèces nouvelles qui lui ont été dédiées :
 Adenocarpus faurei Maire
@@ -532,9 +546,9 @@
 Tamarix africana var. faurei Sennen
 Il est également l'auteur ou le coauteur de 35 taxons, listés par l'IPNI.
 Son herbier est dispersé dans diverses institutions :
-au Museum d'Histoire Naturelle d'Aix-en-Provence (216 parts)[2].
+au Museum d'Histoire Naturelle d'Aix-en-Provence (216 parts).
 à Montpellier (plus de 10000 planches, dont 522 en ligne).
-Il a été rapatrié d'Oran en France par Sébastien Santa[3].
+Il a été rapatrié d'Oran en France par Sébastien Santa.
 </t>
         </is>
       </c>
